--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/tentativa/cv122011a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/tentativa/cv122011a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>total(1)</t>
   </si>
@@ -25,7 +25,7 @@
     <t>cor ou raça</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
+    <t>total</t>
   </si>
   <si>
     <t>homens</t>
@@ -49,16 +49,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -512,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,31 +582,52 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B5">
+        <v>1.531369080152344</v>
+      </c>
+      <c r="C5">
+        <v>1.680044299191237</v>
+      </c>
+      <c r="D5">
+        <v>1.785382949998281</v>
+      </c>
+      <c r="E5">
+        <v>1.995337684421802</v>
+      </c>
+      <c r="F5">
+        <v>1.899548633817683</v>
+      </c>
+      <c r="G5">
+        <v>3.421762319097096</v>
+      </c>
+      <c r="H5">
+        <v>2.00054307201259</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1.531369080152344</v>
+        <v>6.030606991795726</v>
       </c>
       <c r="C6">
-        <v>1.680044299191237</v>
+        <v>6.03445524099979</v>
       </c>
       <c r="D6">
-        <v>1.785382949998281</v>
+        <v>7.818047578080594</v>
       </c>
       <c r="E6">
-        <v>1.995337684421802</v>
+        <v>7.776073673963936</v>
       </c>
       <c r="F6">
-        <v>1.899548633817683</v>
+        <v>7.342808405636545</v>
       </c>
       <c r="G6">
-        <v>3.421762319097096</v>
+        <v>13.98823233393765</v>
       </c>
       <c r="H6">
-        <v>2.00054307201259</v>
+        <v>7.614507128233869</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -620,56 +635,77 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>6.030606991795726</v>
+        <v>4.973256719012817</v>
       </c>
       <c r="C7">
-        <v>6.03445524099979</v>
+        <v>5.244583827396476</v>
       </c>
       <c r="D7">
-        <v>7.818047578080594</v>
+        <v>5.449923587867814</v>
       </c>
       <c r="E7">
-        <v>7.776073673963936</v>
+        <v>6.288293811822395</v>
       </c>
       <c r="F7">
-        <v>7.342808405636545</v>
+        <v>5.31071876204408</v>
       </c>
       <c r="G7">
-        <v>13.98823233393765</v>
+        <v>8.537464859191291</v>
       </c>
       <c r="H7">
-        <v>7.614507128233869</v>
+        <v>5.625450166541005</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B8">
+        <v>9.228926277667323</v>
+      </c>
+      <c r="C8">
+        <v>10.11722160719219</v>
+      </c>
+      <c r="D8">
+        <v>10.68044772725536</v>
+      </c>
+      <c r="E8">
+        <v>12.38607277865971</v>
+      </c>
+      <c r="F8">
+        <v>10.14796312859858</v>
+      </c>
+      <c r="G8">
+        <v>18.43421789674013</v>
+      </c>
+      <c r="H8">
+        <v>10.46947644508497</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9">
-        <v>4.973256719012817</v>
+        <v>16.38591606998372</v>
       </c>
       <c r="C9">
-        <v>5.244583827396476</v>
+        <v>17.206534336665</v>
       </c>
       <c r="D9">
-        <v>5.449923587867814</v>
+        <v>17.77345373165577</v>
       </c>
       <c r="E9">
-        <v>6.288293811822395</v>
+        <v>20.34020542858392</v>
       </c>
       <c r="F9">
-        <v>5.31071876204408</v>
+        <v>15.96803757653615</v>
       </c>
       <c r="G9">
-        <v>8.537464859191291</v>
+        <v>26.27071901386132</v>
       </c>
       <c r="H9">
-        <v>5.625450166541005</v>
+        <v>16.55489488366728</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -677,25 +713,25 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>9.228926277667323</v>
+        <v>11.66764404964633</v>
       </c>
       <c r="C10">
-        <v>10.11722160719219</v>
+        <v>11.60985604504506</v>
       </c>
       <c r="D10">
-        <v>10.68044772725536</v>
+        <v>14.83067795731142</v>
       </c>
       <c r="E10">
-        <v>12.38607277865971</v>
+        <v>16.31786988963589</v>
       </c>
       <c r="F10">
-        <v>10.14796312859858</v>
+        <v>11.98890331450482</v>
       </c>
       <c r="G10">
-        <v>18.43421789674013</v>
+        <v>42.99518234716982</v>
       </c>
       <c r="H10">
-        <v>10.46947644508497</v>
+        <v>12.22531192500838</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -703,25 +739,25 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>16.38591606998372</v>
+        <v>11.45850859238154</v>
       </c>
       <c r="C11">
-        <v>17.206534336665</v>
+        <v>14.76631048699153</v>
       </c>
       <c r="D11">
-        <v>17.77345373165577</v>
+        <v>13.35696320842954</v>
       </c>
       <c r="E11">
-        <v>20.34020542858392</v>
+        <v>23.87590442765172</v>
       </c>
       <c r="F11">
-        <v>15.96803757653615</v>
+        <v>11.00622484073624</v>
       </c>
       <c r="G11">
-        <v>26.27071901386132</v>
+        <v>31.35462331300935</v>
       </c>
       <c r="H11">
-        <v>16.55489488366728</v>
+        <v>11.5605511736107</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -729,25 +765,25 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>11.66764404964633</v>
+        <v>7.688597040234229</v>
       </c>
       <c r="C12">
-        <v>11.60985604504506</v>
+        <v>8.054467778783998</v>
       </c>
       <c r="D12">
-        <v>14.83067795731142</v>
+        <v>8.286442626388995</v>
       </c>
       <c r="E12">
-        <v>16.31786988963589</v>
+        <v>10.12299003573436</v>
       </c>
       <c r="F12">
-        <v>11.98890331450482</v>
+        <v>8.059314841125282</v>
       </c>
       <c r="G12">
-        <v>42.99518234716982</v>
+        <v>12.21550770497014</v>
       </c>
       <c r="H12">
-        <v>12.22531192500838</v>
+        <v>8.537102751729741</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -755,25 +791,25 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>11.45850859238154</v>
+        <v>16.64697900468646</v>
       </c>
       <c r="C13">
-        <v>14.76631048699153</v>
+        <v>18.33382600514261</v>
       </c>
       <c r="D13">
-        <v>13.35696320842954</v>
+        <v>17.96095443340993</v>
       </c>
       <c r="E13">
-        <v>23.87590442765172</v>
+        <v>17.52867849089235</v>
       </c>
       <c r="F13">
-        <v>11.00622484073624</v>
+        <v>19.51031702778039</v>
       </c>
       <c r="G13">
-        <v>31.35462331300935</v>
+        <v>35.19252014491274</v>
       </c>
       <c r="H13">
-        <v>11.5605511736107</v>
+        <v>18.09083365358373</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -781,25 +817,25 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>7.688597040234229</v>
+        <v>13.43811932441648</v>
       </c>
       <c r="C14">
-        <v>8.054467778783998</v>
+        <v>12.95938821633204</v>
       </c>
       <c r="D14">
-        <v>8.286442626388995</v>
+        <v>15.67443264948475</v>
       </c>
       <c r="E14">
-        <v>10.12299003573436</v>
+        <v>17.05828532323309</v>
       </c>
       <c r="F14">
-        <v>8.059314841125282</v>
+        <v>13.80679519161774</v>
       </c>
       <c r="G14">
-        <v>12.21550770497014</v>
+        <v>25.14533309131332</v>
       </c>
       <c r="H14">
-        <v>8.537102751729741</v>
+        <v>14.37601947178065</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -807,25 +843,25 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>16.64697900468646</v>
+        <v>2.719462011039973</v>
       </c>
       <c r="C15">
-        <v>18.33382600514261</v>
+        <v>3.014947431355476</v>
       </c>
       <c r="D15">
-        <v>17.96095443340993</v>
+        <v>3.121310210699343</v>
       </c>
       <c r="E15">
-        <v>17.52867849089235</v>
+        <v>3.780553953605814</v>
       </c>
       <c r="F15">
-        <v>19.51031702778039</v>
+        <v>3.151681934047564</v>
       </c>
       <c r="G15">
-        <v>35.19252014491274</v>
+        <v>5.516339549829076</v>
       </c>
       <c r="H15">
-        <v>18.09083365358373</v>
+        <v>3.202176414351432</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -833,25 +869,25 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>13.43811932441648</v>
+        <v>15.26363037044356</v>
       </c>
       <c r="C16">
-        <v>12.95938821633204</v>
+        <v>15.83698944133298</v>
       </c>
       <c r="D16">
-        <v>15.67443264948475</v>
+        <v>16.71771307755757</v>
       </c>
       <c r="E16">
-        <v>17.05828532323309</v>
+        <v>20.37018592323849</v>
       </c>
       <c r="F16">
-        <v>13.80679519161774</v>
+        <v>17.60959431016227</v>
       </c>
       <c r="G16">
-        <v>25.14533309131332</v>
+        <v>24.90381287642547</v>
       </c>
       <c r="H16">
-        <v>14.37601947178065</v>
+        <v>17.39117268272349</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -859,25 +895,25 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>2.719462011039973</v>
+        <v>14.57621060357561</v>
       </c>
       <c r="C17">
-        <v>3.014947431355476</v>
+        <v>15.5421104226353</v>
       </c>
       <c r="D17">
-        <v>3.121310210699343</v>
+        <v>18.32932900549595</v>
       </c>
       <c r="E17">
-        <v>3.780553953605814</v>
+        <v>20.07052065026309</v>
       </c>
       <c r="F17">
-        <v>3.151681934047564</v>
+        <v>14.36862529200983</v>
       </c>
       <c r="G17">
-        <v>5.516339549829076</v>
+        <v>30.2742594693354</v>
       </c>
       <c r="H17">
-        <v>3.202176414351432</v>
+        <v>13.7009022843517</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -885,25 +921,25 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>15.26363037044356</v>
+        <v>4.617989139505473</v>
       </c>
       <c r="C18">
-        <v>15.83698944133298</v>
+        <v>5.433847269551901</v>
       </c>
       <c r="D18">
-        <v>16.71771307755757</v>
+        <v>4.878670699535125</v>
       </c>
       <c r="E18">
-        <v>20.37018592323849</v>
+        <v>7.063473806046783</v>
       </c>
       <c r="F18">
-        <v>17.60959431016227</v>
+        <v>5.326168929450731</v>
       </c>
       <c r="G18">
-        <v>24.90381287642547</v>
+        <v>15.80329861827978</v>
       </c>
       <c r="H18">
-        <v>17.39117268272349</v>
+        <v>5.469681943619154</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -911,25 +947,25 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>14.57621060357561</v>
+        <v>7.334178922728386</v>
       </c>
       <c r="C19">
-        <v>15.5421104226353</v>
+        <v>8.559734562460983</v>
       </c>
       <c r="D19">
-        <v>18.32932900549595</v>
+        <v>8.372068937417133</v>
       </c>
       <c r="E19">
-        <v>20.07052065026309</v>
+        <v>11.28873587334516</v>
       </c>
       <c r="F19">
-        <v>14.36862529200983</v>
+        <v>8.648895068077023</v>
       </c>
       <c r="G19">
-        <v>30.2742594693354</v>
+        <v>19.14489114753856</v>
       </c>
       <c r="H19">
-        <v>13.7009022843517</v>
+        <v>8.78033043900988</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -937,25 +973,25 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>4.617989139505473</v>
+        <v>9.751756521097093</v>
       </c>
       <c r="C20">
-        <v>5.433847269551901</v>
+        <v>13.597769222416</v>
       </c>
       <c r="D20">
-        <v>4.878670699535125</v>
+        <v>10.47137218935427</v>
       </c>
       <c r="E20">
-        <v>7.063473806046783</v>
+        <v>14.62953538765399</v>
       </c>
       <c r="F20">
-        <v>5.326168929450731</v>
+        <v>9.720912502090831</v>
       </c>
       <c r="G20">
-        <v>15.80329861827978</v>
+        <v>27.30637982238775</v>
       </c>
       <c r="H20">
-        <v>5.469681943619154</v>
+        <v>10.70328853841491</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -963,25 +999,25 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>7.334178922728386</v>
+        <v>5.389146752231365</v>
       </c>
       <c r="C21">
-        <v>8.559734562460983</v>
+        <v>6.98336747772649</v>
       </c>
       <c r="D21">
-        <v>8.372068937417133</v>
+        <v>5.862841878312436</v>
       </c>
       <c r="E21">
-        <v>11.28873587334516</v>
+        <v>7.841362053702918</v>
       </c>
       <c r="F21">
-        <v>8.648895068077023</v>
+        <v>5.57305408423995</v>
       </c>
       <c r="G21">
-        <v>19.14489114753856</v>
+        <v>12.60255628719919</v>
       </c>
       <c r="H21">
-        <v>8.78033043900988</v>
+        <v>5.876209898261844</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -989,25 +1025,25 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>9.751756521097093</v>
+        <v>13.17125072616889</v>
       </c>
       <c r="C22">
-        <v>13.597769222416</v>
+        <v>15.34105895363088</v>
       </c>
       <c r="D22">
-        <v>10.47137218935427</v>
+        <v>13.6168498702081</v>
       </c>
       <c r="E22">
-        <v>14.62953538765399</v>
+        <v>17.89884156365666</v>
       </c>
       <c r="F22">
-        <v>9.720912502090831</v>
+        <v>14.72319292079516</v>
       </c>
       <c r="G22">
-        <v>27.30637982238775</v>
+        <v>31.08340564817434</v>
       </c>
       <c r="H22">
-        <v>10.70328853841491</v>
+        <v>15.62648537490252</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1015,25 +1051,25 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>5.389146752231365</v>
+        <v>7.51589335411742</v>
       </c>
       <c r="C23">
-        <v>6.98336747772649</v>
+        <v>9.058645021950232</v>
       </c>
       <c r="D23">
-        <v>5.862841878312436</v>
+        <v>9.624134555312374</v>
       </c>
       <c r="E23">
-        <v>7.841362053702918</v>
+        <v>14.40311256857708</v>
       </c>
       <c r="F23">
-        <v>5.57305408423995</v>
+        <v>9.168090890991802</v>
       </c>
       <c r="G23">
-        <v>12.60255628719919</v>
+        <v>22.90605721738278</v>
       </c>
       <c r="H23">
-        <v>5.876209898261844</v>
+        <v>8.908489925266203</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1041,25 +1077,25 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>13.17125072616889</v>
+        <v>5.274744021467989</v>
       </c>
       <c r="C24">
-        <v>15.34105895363088</v>
+        <v>5.804070531293011</v>
       </c>
       <c r="D24">
-        <v>13.6168498702081</v>
+        <v>6.089548836388698</v>
       </c>
       <c r="E24">
-        <v>17.89884156365666</v>
+        <v>8.54842652085131</v>
       </c>
       <c r="F24">
-        <v>14.72319292079516</v>
+        <v>5.446997769461862</v>
       </c>
       <c r="G24">
-        <v>31.08340564817434</v>
+        <v>7.232589466992372</v>
       </c>
       <c r="H24">
-        <v>15.62648537490252</v>
+        <v>6.081462069238342</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1067,25 +1103,25 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>7.51589335411742</v>
+        <v>2.528432340531266</v>
       </c>
       <c r="C25">
-        <v>9.058645021950232</v>
+        <v>2.810918071997513</v>
       </c>
       <c r="D25">
-        <v>9.624134555312374</v>
+        <v>2.97708968309789</v>
       </c>
       <c r="E25">
-        <v>14.40311256857708</v>
+        <v>3.214637287835425</v>
       </c>
       <c r="F25">
-        <v>9.168090890991802</v>
+        <v>3.206188089393315</v>
       </c>
       <c r="G25">
-        <v>22.90605721738278</v>
+        <v>6.189281526509471</v>
       </c>
       <c r="H25">
-        <v>8.908489925266203</v>
+        <v>3.39036262224891</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1093,25 +1129,25 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>5.274744021467989</v>
+        <v>4.658546058831069</v>
       </c>
       <c r="C26">
-        <v>5.804070531293011</v>
+        <v>5.538138041361918</v>
       </c>
       <c r="D26">
-        <v>6.089548836388698</v>
+        <v>5.328969761537652</v>
       </c>
       <c r="E26">
-        <v>8.54842652085131</v>
+        <v>5.545479499090686</v>
       </c>
       <c r="F26">
-        <v>5.446997769461862</v>
+        <v>6.017802573652516</v>
       </c>
       <c r="G26">
-        <v>7.232589466992372</v>
+        <v>11.08666370665725</v>
       </c>
       <c r="H26">
-        <v>6.081462069238342</v>
+        <v>6.272047191723427</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1119,25 +1155,25 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>2.528432340531266</v>
+        <v>8.94328668534911</v>
       </c>
       <c r="C27">
-        <v>2.810918071997513</v>
+        <v>11.15901380359945</v>
       </c>
       <c r="D27">
-        <v>2.97708968309789</v>
+        <v>10.65618620287852</v>
       </c>
       <c r="E27">
-        <v>3.214637287835425</v>
+        <v>13.22553189282404</v>
       </c>
       <c r="F27">
-        <v>3.206188089393315</v>
+        <v>9.953366814339923</v>
       </c>
       <c r="G27">
-        <v>6.189281526509471</v>
+        <v>18.84045454431195</v>
       </c>
       <c r="H27">
-        <v>3.39036262224891</v>
+        <v>11.03123346299503</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1145,25 +1181,25 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>4.658546058831069</v>
+        <v>4.475948617136961</v>
       </c>
       <c r="C28">
-        <v>5.538138041361918</v>
+        <v>4.90064390935406</v>
       </c>
       <c r="D28">
-        <v>5.328969761537652</v>
+        <v>5.547887456222495</v>
       </c>
       <c r="E28">
-        <v>5.545479499090686</v>
+        <v>5.210728579859415</v>
       </c>
       <c r="F28">
-        <v>6.017802573652516</v>
+        <v>6.515248470939777</v>
       </c>
       <c r="G28">
-        <v>11.08666370665725</v>
+        <v>11.12410937759096</v>
       </c>
       <c r="H28">
-        <v>6.272047191723427</v>
+        <v>7.062027671652472</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1171,25 +1207,25 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>8.94328668534911</v>
+        <v>3.766521910980456</v>
       </c>
       <c r="C29">
-        <v>11.15901380359945</v>
+        <v>4.131812804427864</v>
       </c>
       <c r="D29">
-        <v>10.65618620287852</v>
+        <v>4.420797744287548</v>
       </c>
       <c r="E29">
-        <v>13.22553189282404</v>
+        <v>4.609985054382767</v>
       </c>
       <c r="F29">
-        <v>9.953366814339923</v>
+        <v>4.997654284138984</v>
       </c>
       <c r="G29">
-        <v>18.84045454431195</v>
+        <v>10.42127272461257</v>
       </c>
       <c r="H29">
-        <v>11.03123346299503</v>
+        <v>5.244899807360951</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1197,25 +1233,25 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>4.475948617136961</v>
+        <v>3.319106846677305</v>
       </c>
       <c r="C30">
-        <v>4.90064390935406</v>
+        <v>3.473718724779088</v>
       </c>
       <c r="D30">
-        <v>5.547887456222495</v>
+        <v>4.286525914339223</v>
       </c>
       <c r="E30">
-        <v>5.210728579859415</v>
+        <v>3.70141026074664</v>
       </c>
       <c r="F30">
-        <v>6.515248470939777</v>
+        <v>5.097037926626464</v>
       </c>
       <c r="G30">
-        <v>11.12410937759096</v>
+        <v>9.573737111010111</v>
       </c>
       <c r="H30">
-        <v>7.062027671652472</v>
+        <v>5.970169950606065</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1223,25 +1259,25 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>3.766521910980456</v>
+        <v>4.501800228016615</v>
       </c>
       <c r="C31">
-        <v>4.131812804427864</v>
+        <v>4.64840809716854</v>
       </c>
       <c r="D31">
-        <v>4.420797744287548</v>
+        <v>5.989323708606647</v>
       </c>
       <c r="E31">
-        <v>4.609985054382767</v>
+        <v>5.045867077358519</v>
       </c>
       <c r="F31">
-        <v>4.997654284138984</v>
+        <v>7.193026189799774</v>
       </c>
       <c r="G31">
-        <v>10.42127272461257</v>
+        <v>20.38701013716772</v>
       </c>
       <c r="H31">
-        <v>5.244899807360951</v>
+        <v>7.869561469143915</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1249,25 +1285,25 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>3.319106846677305</v>
+        <v>11.46737484254012</v>
       </c>
       <c r="C32">
-        <v>3.473718724779088</v>
+        <v>11.64471919078616</v>
       </c>
       <c r="D32">
-        <v>4.286525914339223</v>
+        <v>14.13311669656495</v>
       </c>
       <c r="E32">
-        <v>3.70141026074664</v>
+        <v>13.20761217636245</v>
       </c>
       <c r="F32">
-        <v>5.097037926626464</v>
+        <v>10.2182569036061</v>
       </c>
       <c r="G32">
-        <v>9.573737111010111</v>
+        <v>29.68977970960616</v>
       </c>
       <c r="H32">
-        <v>5.970169950606065</v>
+        <v>12.31856099379976</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1275,25 +1311,25 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>4.501800228016615</v>
+        <v>4.737084477845523</v>
       </c>
       <c r="C33">
-        <v>4.64840809716854</v>
+        <v>4.869938067324373</v>
       </c>
       <c r="D33">
-        <v>5.989323708606647</v>
+        <v>6.511027053962469</v>
       </c>
       <c r="E33">
-        <v>5.045867077358519</v>
+        <v>4.917354172081643</v>
       </c>
       <c r="F33">
-        <v>7.193026189799774</v>
+        <v>9.304872279790573</v>
       </c>
       <c r="G33">
-        <v>20.38701013716772</v>
+        <v>11.29094388864672</v>
       </c>
       <c r="H33">
-        <v>7.869561469143915</v>
+        <v>12.37637254962071</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1301,25 +1337,25 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>11.46737484254012</v>
+        <v>3.391942789522786</v>
       </c>
       <c r="C34">
-        <v>11.64471919078616</v>
+        <v>3.798887438924259</v>
       </c>
       <c r="D34">
-        <v>14.13311669656495</v>
+        <v>4.149248785030645</v>
       </c>
       <c r="E34">
-        <v>13.20761217636245</v>
+        <v>4.462259552483604</v>
       </c>
       <c r="F34">
-        <v>10.2182569036061</v>
+        <v>3.986991978366914</v>
       </c>
       <c r="G34">
-        <v>29.68977970960616</v>
+        <v>8.286904517232458</v>
       </c>
       <c r="H34">
-        <v>12.31856099379976</v>
+        <v>4.092747509040407</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1327,25 +1363,25 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>4.737084477845523</v>
+        <v>15.61767120039859</v>
       </c>
       <c r="C35">
-        <v>4.869938067324373</v>
+        <v>15.50217103426199</v>
       </c>
       <c r="D35">
-        <v>6.511027053962469</v>
+        <v>18.29642253915256</v>
       </c>
       <c r="E35">
-        <v>4.917354172081643</v>
+        <v>17.6819318198055</v>
       </c>
       <c r="F35">
-        <v>9.304872279790573</v>
+        <v>17.48685672560709</v>
       </c>
       <c r="G35">
-        <v>11.29094388864672</v>
+        <v>36.93651421407704</v>
       </c>
       <c r="H35">
-        <v>12.37637254962071</v>
+        <v>15.54091811595333</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1353,25 +1389,25 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>3.391942789522786</v>
+        <v>6.641655742009609</v>
       </c>
       <c r="C36">
-        <v>3.798887438924259</v>
+        <v>7.743200800859403</v>
       </c>
       <c r="D36">
-        <v>4.149248785030645</v>
+        <v>8.401621583238754</v>
       </c>
       <c r="E36">
-        <v>4.462259552483604</v>
+        <v>10.60534990036052</v>
       </c>
       <c r="F36">
-        <v>3.986991978366914</v>
+        <v>8.660064027404436</v>
       </c>
       <c r="G36">
-        <v>8.286904517232458</v>
+        <v>17.89184976485294</v>
       </c>
       <c r="H36">
-        <v>4.092747509040407</v>
+        <v>9.492768440860447</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1379,25 +1415,25 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>15.61767120039859</v>
+        <v>5.075373972263582</v>
       </c>
       <c r="C37">
-        <v>15.50217103426199</v>
+        <v>5.661978438382592</v>
       </c>
       <c r="D37">
-        <v>18.29642253915256</v>
+        <v>6.455719544286283</v>
       </c>
       <c r="E37">
-        <v>17.6819318198055</v>
+        <v>6.525842354249087</v>
       </c>
       <c r="F37">
-        <v>17.48685672560709</v>
+        <v>5.798514576189218</v>
       </c>
       <c r="G37">
-        <v>36.93651421407704</v>
+        <v>11.90136636510156</v>
       </c>
       <c r="H37">
-        <v>15.54091811595333</v>
+        <v>5.958001536768371</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1405,76 +1441,24 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>6.641655742009609</v>
+        <v>5.543076833094553</v>
       </c>
       <c r="C38">
-        <v>7.743200800859403</v>
+        <v>6.257743005524071</v>
       </c>
       <c r="D38">
-        <v>8.401621583238754</v>
+        <v>6.736967814279327</v>
       </c>
       <c r="E38">
-        <v>10.60534990036052</v>
+        <v>7.484750781879821</v>
       </c>
       <c r="F38">
-        <v>8.660064027404436</v>
+        <v>6.785113663987598</v>
       </c>
       <c r="G38">
-        <v>17.89184976485294</v>
+        <v>13.68343014162855</v>
       </c>
       <c r="H38">
-        <v>9.492768440860447</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39">
-        <v>5.075373972263582</v>
-      </c>
-      <c r="C39">
-        <v>5.661978438382592</v>
-      </c>
-      <c r="D39">
-        <v>6.455719544286283</v>
-      </c>
-      <c r="E39">
-        <v>6.525842354249087</v>
-      </c>
-      <c r="F39">
-        <v>5.798514576189218</v>
-      </c>
-      <c r="G39">
-        <v>11.90136636510156</v>
-      </c>
-      <c r="H39">
-        <v>5.958001536768371</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40">
-        <v>5.543076833094553</v>
-      </c>
-      <c r="C40">
-        <v>6.257743005524071</v>
-      </c>
-      <c r="D40">
-        <v>6.736967814279327</v>
-      </c>
-      <c r="E40">
-        <v>7.484750781879821</v>
-      </c>
-      <c r="F40">
-        <v>6.785113663987598</v>
-      </c>
-      <c r="G40">
-        <v>13.68343014162855</v>
-      </c>
-      <c r="H40">
         <v>7.309732646746707</v>
       </c>
     </row>
